--- a/common-resource/src/test/java/com/windforce/common/resource/excel/Human.xlsx
+++ b/common-resource/src/test/java/com/windforce/common/resource/excel/Human.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windforce\OneDrive\projects\common-resource\common-resource\src\test\java\com\windforce\common\resource\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="17" documentId="D639870336581B6E492B310D45E5923B50074001" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{8EC35392-B05B-44A8-923A-BFA73A061F3F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="13950" windowHeight="6825"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="13950" windowHeight="6825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Human" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>标识</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,12 +93,32 @@
   </si>
   <si>
     <t>END之后的行数据也是不会被读取的</t>
+  </si>
+  <si>
+    <t>petList</t>
+  </si>
+  <si>
+    <t>petMap</t>
+  </si>
+  <si>
+    <t>pet</t>
+  </si>
+  <si>
+    <t>{"id":1,"name":"咪咪"}</t>
+  </si>
+  <si>
+    <t>[{"id":1,"name":"咪咪"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1:{"id":"1","name":"咪咪"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -233,6 +259,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -280,7 +309,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,9 +342,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -348,6 +394,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -523,20 +586,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="2" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="43.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -552,11 +618,11 @@
       <c r="E1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
@@ -572,8 +638,17 @@
       <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="F2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="2">
         <v>1</v>
@@ -587,11 +662,20 @@
       <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="2">
         <v>2</v>
@@ -606,7 +690,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -623,13 +707,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F10" s="3"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I10" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/common-resource/src/test/java/com/windforce/common/resource/excel/Human.xlsx
+++ b/common-resource/src/test/java/com/windforce/common/resource/excel/Human.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windforce\OneDrive\projects\common-resource\common-resource\src\test\java\com\windforce\common\resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="D639870336581B6E492B310D45E5923B50074001" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{8EC35392-B05B-44A8-923A-BFA73A061F3F}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="D639870336581B6E492B310D45E5923B50074001" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{493910C5-78BD-4A60-A1A1-C1349CAF8E96}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2715" windowWidth="13950" windowHeight="6825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>标识</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +113,13 @@
   <si>
     <t>{1:{"id":"1","name":"咪咪"}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legType</t>
   </si>
 </sst>
 </file>
@@ -587,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -602,7 +609,7 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -618,11 +625,11 @@
       <c r="E1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
@@ -647,8 +654,11 @@
       <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="I2" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="2">
         <v>1</v>
@@ -671,11 +681,14 @@
       <c r="H3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="2">
         <v>2</v>
@@ -690,7 +703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -707,13 +720,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="I10" s="3"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J10" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
